--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\android\Desktop\webservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\webservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,12 +454,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,6 +515,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -792,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +815,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\webservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masoud1\Desktop\docs\webservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Update review</t>
   </si>
@@ -59,9 +59,6 @@
 comment: String</t>
   </si>
   <si>
-    <t>business comments count is wrong after adding comment…</t>
-  </si>
-  <si>
     <t>Delete comment </t>
   </si>
   <si>
@@ -107,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,7 +199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,21 +275,6 @@
   </si>
   <si>
     <r>
-      <t>execution error on submitting rate without review:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> it is rate without review. What did you
-mean?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">we don't have: </t>
     </r>
     <r>
@@ -385,6 +367,15 @@
     user_id: string
     user_profile_picture.id : int
 }</t>
+  </si>
+  <si>
+    <t>size of result is 0 for me !!</t>
+  </si>
+  <si>
+    <t>کامنت قرار میگیرد اما تعداد کامنت ها به درستی نمایش داده نمیشوند</t>
+  </si>
+  <si>
+    <t>هنگام ثبت امتیاز error دریافت می شود</t>
   </si>
 </sst>
 </file>
@@ -398,7 +389,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -430,7 +421,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +434,7 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +445,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,6 +514,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,32 +812,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="30.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="29" style="8" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="80.125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -851,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,234 +875,236 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:4" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="C18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="14" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13" t="s">
+    </row>
+    <row r="21" spans="1:4" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masoud1\Desktop\docs\webservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\webservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
-  <si>
-    <t>Update review</t>
-  </si>
-  <si>
-    <t>user.id: int
-review.id: int
-text: String
-rate: int</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>boolean</t>
   </si>
@@ -49,14 +40,6 @@
   </si>
   <si>
     <t>user.id: int</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comment on post</t>
-  </si>
-  <si>
-    <t>user.id: int
-post.id: int
-comment: String</t>
   </si>
   <si>
     <t>Delete comment </t>
@@ -89,31 +72,6 @@
 user.id: int (user who is gonna be unblocked)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Get blocked users list</t>
-  </si>
-  <si>
-    <t>business.id: int</t>
-  </si>
-  <si>
-    <r>
-      <t>list{
-    user.id: int
-    user_id: String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    user_profile_picture.id : int
-}</t>
-    </r>
-  </si>
-  <si>
     <t>Answer request friendship</t>
   </si>
   <si>
@@ -141,20 +99,6 @@
   </si>
   <si>
     <t>Get user's friend request list</t>
-  </si>
-  <si>
-    <t>Get last comment notification</t>
-  </si>
-  <si>
-    <t>user.id: int (business owner)</t>
-  </si>
-  <si>
-    <t>comment.id:int
-post.id: int
-post_picture.id: int
-user_profile_picture.id: int
-text:String
-interval_time: int</t>
   </si>
   <si>
     <t>Get all comment notifications</t>
@@ -175,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -199,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,66 +246,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>incorrectly, I could write 2 reviews on one business</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>what?!!!!!!!!!!!, It is UpdateReview not ReviewBusiness</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>execution error on submitting rate without review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>whate?!!!!!!!!!!</t>
-    </r>
-  </si>
-  <si>
     <t>list{
     user.id: int (friend user.id)
     user_id: string
@@ -372,10 +256,10 @@
     <t>size of result is 0 for me !!</t>
   </si>
   <si>
-    <t>کامنت قرار میگیرد اما تعداد کامنت ها به درستی نمایش داده نمیشوند</t>
-  </si>
-  <si>
     <t>هنگام ثبت امتیاز error دریافت می شود</t>
+  </si>
+  <si>
+    <t>wating for GetBusinessReview modification</t>
   </si>
 </sst>
 </file>
@@ -385,23 +269,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -421,7 +299,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -434,7 +312,7 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -478,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,29 +367,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,8 +397,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,301 +684,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29" style="8" customWidth="1"/>
-    <col min="4" max="4" width="80.125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="8"/>
+    <col min="1" max="1" width="30.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29" style="6" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="D18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>25</v>
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>boolean</t>
   </si>
@@ -63,13 +63,6 @@
   <si>
     <t>به دلیل مشکل وب سرویس دریافت لیست دنبال کنندگان موفق به تست نشدم
   لطفأ خطای ارور بررسی شود</t>
-  </si>
-  <si>
-    <t>Unblock user</t>
-  </si>
-  <si>
-    <t>business.id: int
-user.id: int (user who is gonna be unblocked)</t>
   </si>
   <si>
     <t>Answer request friendship</t>
@@ -256,10 +249,10 @@
     <t>size of result is 0 for me !!</t>
   </si>
   <si>
-    <t>هنگام ثبت امتیاز error دریافت می شود</t>
-  </si>
-  <si>
     <t>wating for GetBusinessReview modification</t>
+  </si>
+  <si>
+    <t>view fault</t>
   </si>
 </sst>
 </file>
@@ -323,7 +316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -394,15 +396,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -686,17 +683,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29" style="6" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="30.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29" style="7" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -709,8 +706,8 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>45</v>
+      <c r="D1" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,87 +722,88 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -813,122 +811,108 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="D17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>18</v>
+      <c r="C19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>boolean</t>
   </si>
@@ -54,17 +54,6 @@
 --- wrong comments count in business after deleting cm.....    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Block user</t>
-  </si>
-  <si>
-    <t>business.id: int
-user.id: int (user who is gonna be blocked)</t>
-  </si>
-  <si>
-    <t>به دلیل مشکل وب سرویس دریافت لیست دنبال کنندگان موفق به تست نشدم
-  لطفأ خطای ارور بررسی شود</t>
-  </si>
-  <si>
     <t>Answer request friendship</t>
   </si>
   <si>
@@ -89,9 +78,6 @@
   </si>
   <si>
     <t>Get user's friend list</t>
-  </si>
-  <si>
-    <t>Get user's friend request list</t>
   </si>
   <si>
     <t>Get all comment notifications</t>
@@ -124,37 +110,11 @@
     </r>
   </si>
   <si>
-    <t>Rate business</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">business.id:int
-user.id: int
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rate: int (between 1 to 5)</t>
-    </r>
-  </si>
-  <si>
     <t>Unlike post</t>
   </si>
   <si>
     <t>user.id: int
 post.id: int</t>
-  </si>
-  <si>
-    <t>Forget password</t>
-  </si>
-  <si>
-    <t>email: String</t>
   </si>
   <si>
     <t>Update comment</t>
@@ -163,16 +123,6 @@
     <t>user.id:int
 comment.id:int
 comment:String</t>
-  </si>
-  <si>
-    <t>download image</t>
-  </si>
-  <si>
-    <t>image.id:int
-image_size: int (large:1, medium:2, small:3)</t>
-  </si>
-  <si>
-    <t>image: String</t>
   </si>
   <si>
     <t>unfollow</t>
@@ -222,20 +172,6 @@
         <family val="2"/>
       </rPr>
       <t>We have</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I couldn't found any web service in application: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>It is in webservice/comment folder</t>
     </r>
   </si>
   <si>
@@ -316,7 +252,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +262,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,9 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -389,9 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -399,7 +323,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -681,19 +605,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29" style="7" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="30.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29" style="6" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -706,8 +630,8 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>42</v>
+      <c r="D1" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,195 +648,129 @@
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>boolean</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>user.id: int</t>
-  </si>
-  <si>
-    <t>Delete comment </t>
-  </si>
-  <si>
-    <t>business.id: int
-comment.id: int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">because of 0 business id I'm not sure it's working or not 
-( get comments web service not working cprrectly ) 
---- wrong comments count in business after deleting cm.....    </t>
   </si>
   <si>
     <t>Answer request friendship</t>
@@ -60,10 +48,6 @@
     <t>applicator_user.id: int
 requested_user.id: int
 answer: boolean</t>
-  </si>
-  <si>
-    <t>به دلیل مشکل وب سرویس قادر به جستجوی کاربران نبودم – پس از حل مشکل
- تست خواهد شد</t>
   </si>
   <si>
     <t>Request friendship</t>
@@ -161,20 +145,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">we don't have: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>We have</t>
-    </r>
-  </si>
-  <si>
     <t>list{
     user.id: int (friend user.id)
     user_id: string
@@ -189,6 +159,30 @@
   </si>
   <si>
     <t>view fault</t>
+  </si>
+  <si>
+    <t>cancel share</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>check execute once</t>
+  </si>
+  <si>
+    <t>rate,block,follow,friend,share,</t>
+  </si>
+  <si>
+    <t>view fault. Can't unfollow</t>
+  </si>
+  <si>
+    <t>wating for creating new webservice</t>
+  </si>
+  <si>
+    <t>view fault. Can't unfriend</t>
+  </si>
+  <si>
+    <t>wating for modifying GetUserHome info to return correct friendshipt status</t>
   </si>
 </sst>
 </file>
@@ -198,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,22 +228,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,19 +282,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,7 +578,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +600,8 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
+      <c r="D1" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,133 +614,149 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>boolean</t>
   </si>
@@ -48,20 +48,6 @@
     <t>applicator_user.id: int
 requested_user.id: int
 answer: boolean</t>
-  </si>
-  <si>
-    <t>Request friendship</t>
-  </si>
-  <si>
-    <t>applicator_user.id: int
-requested_user.id: int</t>
-  </si>
-  <si>
-    <t>به دلیل مشکل وب سرویس قادر به جستجوی کاربران نبودم – پس از حل مشکل تست
- خواهد شد</t>
-  </si>
-  <si>
-    <t>Get user's friend list</t>
   </si>
   <si>
     <t>Get all comment notifications</t>
@@ -145,13 +131,6 @@
 </t>
   </si>
   <si>
-    <t>list{
-    user.id: int (friend user.id)
-    user_id: string
-    user_profile_picture.id : int
-}</t>
-  </si>
-  <si>
     <t>size of result is 0 for me !!</t>
   </si>
   <si>
@@ -165,12 +144,6 @@
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>check execute once</t>
-  </si>
-  <si>
-    <t>rate,block,follow,friend,share,</t>
   </si>
   <si>
     <t>view fault. Can't unfollow</t>
@@ -575,9 +548,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,81 +588,81 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -703,60 +676,22 @@
         <v>0</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
+    <row r="11" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/unseen.xlsx
+++ b/app/src/docs/webservices/unseen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>boolean</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>user.id: int</t>
-  </si>
-  <si>
-    <t>Delete comment </t>
-  </si>
-  <si>
-    <t>business.id: int
-comment.id: int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">because of 0 business id I'm not sure it's working or not 
-( get comments web service not working cprrectly ) 
---- wrong comments count in business after deleting cm.....    </t>
   </si>
   <si>
     <t>Answer request friendship</t>
@@ -60,24 +48,6 @@
     <t>applicator_user.id: int
 requested_user.id: int
 answer: boolean</t>
-  </si>
-  <si>
-    <t>به دلیل مشکل وب سرویس قادر به جستجوی کاربران نبودم – پس از حل مشکل
- تست خواهد شد</t>
-  </si>
-  <si>
-    <t>Request friendship</t>
-  </si>
-  <si>
-    <t>applicator_user.id: int
-requested_user.id: int</t>
-  </si>
-  <si>
-    <t>به دلیل مشکل وب سرویس قادر به جستجوی کاربران نبودم – پس از حل مشکل تست
- خواهد شد</t>
-  </si>
-  <si>
-    <t>Get user's friend list</t>
   </si>
   <si>
     <t>Get all comment notifications</t>
@@ -161,27 +131,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">we don't have: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>We have</t>
-    </r>
-  </si>
-  <si>
-    <t>list{
-    user.id: int (friend user.id)
-    user_id: string
-    user_profile_picture.id : int
-}</t>
-  </si>
-  <si>
     <t>size of result is 0 for me !!</t>
   </si>
   <si>
@@ -189,6 +138,24 @@
   </si>
   <si>
     <t>view fault</t>
+  </si>
+  <si>
+    <t>cancel share</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>view fault. Can't unfollow</t>
+  </si>
+  <si>
+    <t>wating for creating new webservice</t>
+  </si>
+  <si>
+    <t>view fault. Can't unfriend</t>
+  </si>
+  <si>
+    <t>wating for modifying GetUserHome info to return correct friendshipt status</t>
   </si>
 </sst>
 </file>
@@ -198,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,22 +201,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,19 +255,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +573,8 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>30</v>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,133 +587,111 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="10" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
